--- a/Fase 2/Evidencias Proyecto/documentacion/requerimientos/Planilla de Requerimientos.xlsx
+++ b/Fase 2/Evidencias Proyecto/documentacion/requerimientos/Planilla de Requerimientos.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\duoc\Portafolio\Enmistiempos\Fase 2\Evidencias Proyecto\documentacion\requerimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\duoc\5to semestre\Portafolio\Portafolio_Grupo4_TatasApp\Fase 2\Evidencias Proyecto\documentacion\requerimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBA2BFF-FD3C-4A29-8B9F-A46EB078C568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49604545-6CBC-4439-960D-6B0551E77FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimiento Inicial" sheetId="1" r:id="rId1"/>
-    <sheet name="Estados" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Requerimiento Inicial'!$A$1:$G$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Requerimiento Inicial'!$A$1:$F$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -57,9 +56,6 @@
     <t>Descripción corta del requerimiento</t>
   </si>
   <si>
-    <t>Estado</t>
-  </si>
-  <si>
     <t>Crear dos tipos de usuarios: familiares y adulto mayor</t>
   </si>
   <si>
@@ -232,21 +228,6 @@
   </si>
   <si>
     <t>Baja</t>
-  </si>
-  <si>
-    <t>Estados de Requerimiento</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
-    <t>En desarrollo</t>
-  </si>
-  <si>
-    <t>En pruebas</t>
-  </si>
-  <si>
-    <t>Finalizado</t>
   </si>
   <si>
     <t>F01</t>
@@ -325,7 +306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -369,21 +350,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,14 +370,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -445,40 +407,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -521,120 +454,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -645,16 +469,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7D8B3D8-1DBE-4A80-91B0-3754A3366DED}" name="Tabla1" displayName="Tabla1" ref="A1:A5" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:A5" xr:uid="{C7D8B3D8-1DBE-4A80-91B0-3754A3366DED}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4EF51BE6-2016-49E9-8F4E-0CB1694DF7C6}" name="Estados de Requerimiento" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -855,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U1001"/>
+  <dimension ref="A1:T1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -869,11 +683,10 @@
     <col min="4" max="4" width="21.08984375" customWidth="1"/>
     <col min="5" max="5" width="66.08984375" customWidth="1"/>
     <col min="6" max="6" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="21" width="10.7265625" customWidth="1"/>
+    <col min="7" max="20" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,11 +703,9 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -908,283 +719,247 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-    </row>
-    <row r="2" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+    </row>
+    <row r="9" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+    </row>
+    <row r="10" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+    </row>
+    <row r="11" spans="1:20" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="E12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    </row>
+    <row r="13" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="F13" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>65</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -1198,145 +973,127 @@
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-    </row>
-    <row r="14" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="F14" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="14" t="s">
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="F16" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="E18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="F19" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>65</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -1350,155 +1107,136 @@
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-    </row>
-    <row r="20" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="F20" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="14" t="s">
+      <c r="D22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="7" t="s">
+    </row>
+    <row r="24" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="C24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="F25" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2469,70 +2207,12 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:G25" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G25">
+  <autoFilter ref="A1:F25" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F25">
       <sortCondition ref="A1:A25"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Indique un estado válido" promptTitle="Estados" prompt="Seleccione un estado de requerimiento" xr:uid="{F803CE66-832A-483D-B638-DE4C50FBB913}">
-          <x14:formula1>
-            <xm:f>Estados!$A$2:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G25</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4890192-5C47-49DF-8ACB-8A08FEA2118E}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>